--- a/docs/Exemplo Matriculas.xlsx
+++ b/docs/Exemplo Matriculas.xlsx
@@ -29,9 +29,6 @@
     <t>Teste 2</t>
   </si>
   <si>
-    <t>teste2@teste.com.br</t>
-  </si>
-  <si>
     <t>teste1@teste.com.br</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>alexandre@atma.com.br</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -398,34 +397,34 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1111</v>
+        <v>222222</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>123456</v>
@@ -433,10 +432,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2222</v>
+        <v>111111</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -444,7 +443,6 @@
       <c r="D3">
         <v>123456</v>
       </c>
-      <c r="F3" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
@@ -454,8 +452,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
